--- a/Result/SoftAttentionResult based TitanV.xlsx
+++ b/Result/SoftAttentionResult based TitanV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Skin-Disease-Detection-HAM100000\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F6BC8C-A046-475C-ABFA-CF0913BE5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF72ECF-E39B-4111-BE0E-BBF767D21304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,6 +263,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,9 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,28 +595,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -739,10 +739,10 @@
         <v>0.99</v>
       </c>
       <c r="M4" s="1">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="N4" s="1">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="O4" s="1">
         <v>0.66</v>
@@ -784,10 +784,10 @@
         <v>0.91</v>
       </c>
       <c r="M5" s="1">
-        <v>0.48</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="O5" s="1">
         <v>0.37</v>
@@ -829,10 +829,10 @@
         <v>0.94</v>
       </c>
       <c r="M6" s="1">
-        <v>0.67</v>
+        <v>0.24</v>
       </c>
       <c r="N6" s="1">
-        <v>0.75</v>
+        <v>0.53</v>
       </c>
       <c r="O6" s="1">
         <v>0.24</v>
@@ -874,10 +874,10 @@
         <v>0.95</v>
       </c>
       <c r="M7" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="N7" s="1">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="O7" s="1">
         <v>0.4</v>
@@ -922,7 +922,7 @@
         <v>0.9</v>
       </c>
       <c r="N8" s="1">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O8" s="1">
         <v>0.94</v>
@@ -964,10 +964,10 @@
         <v>0.99</v>
       </c>
       <c r="M9" s="1">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="N9" s="1">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="O9" s="1">
         <v>0.71</v>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" ref="M10" si="4">AVERAGE(M3:M9)</f>
-        <v>0.62571428571428567</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ref="N10" si="5">AVERAGE(N3:N9)</f>
-        <v>0.75857142857142856</v>
+        <v>0.69142857142857139</v>
       </c>
       <c r="O10" s="1">
         <f>AVERAGE(O3:O9)</f>
@@ -1081,11 +1081,11 @@
       </c>
       <c r="M11" s="1">
         <f>_xlfn.STDEV.P(M3:M9)</f>
-        <v>0.16140960697706244</v>
+        <v>0.19595917942265456</v>
       </c>
       <c r="N11" s="1">
         <f>_xlfn.STDEV.P(N3:N9)</f>
-        <v>9.2339214921099672E-2</v>
+        <v>0.14466005188802097</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
@@ -1099,22 +1099,22 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
@@ -1137,7 +1137,7 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="14"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
@@ -1160,13 +1160,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="14"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="H16" s="15">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I16" s="16">
         <v>0.75</v>
@@ -1183,16 +1183,16 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="14"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="H17" s="15">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="I17" s="16">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="J17" s="1">
         <v>0.42</v>
@@ -1206,16 +1206,16 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="14"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="H18" s="15">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="I18" s="16">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="J18" s="1">
         <v>0.32</v>
@@ -1229,16 +1229,16 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="14"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="H19" s="15">
-        <v>0.59</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I19" s="16">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="J19" s="1">
         <v>0.47</v>
@@ -1252,7 +1252,7 @@
       <c r="M19" s="12"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="14"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1261,7 +1261,7 @@
         <v>0.9</v>
       </c>
       <c r="I20" s="16">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="J20" s="1">
         <v>0.89</v>
@@ -1281,10 +1281,10 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="H21" s="15">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="I21" s="16">
-        <v>0.81</v>
+        <v>0.85</v>
       </c>
       <c r="J21" s="1">
         <v>0.77</v>
@@ -1304,11 +1304,11 @@
       <c r="E22" s="11"/>
       <c r="H22" s="16">
         <f>AVERAGE(H15:H21)</f>
-        <v>0.56714285714285706</v>
+        <v>0.58285714285714285</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" ref="I22:L22" si="8">AVERAGE(I15:I21)</f>
-        <v>0.67571428571428582</v>
+        <v>0.70714285714285718</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" si="8"/>
